--- a/epigraphhub/data/brasil/sinan/metadata/TETN.xlsx
+++ b/epigraphhub/data/brasil/sinan/metadata/TETN.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="286">
   <si>
     <t xml:space="preserve">Nome do campo</t>
   </si>
@@ -40,7 +40,7 @@
     <t xml:space="preserve">Características</t>
   </si>
   <si>
-    <t xml:space="preserve">CAMPO DBF</t>
+    <t xml:space="preserve">DBF</t>
   </si>
   <si>
     <t xml:space="preserve">31. Data de Investigação</t>
@@ -97,30 +97,13 @@
     <t xml:space="preserve">varchar2(6)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Informar a atividade
+    <t xml:space="preserve">Informar a atividade
 exercida pela mãe do
 recém nascido no setor
 formal, informal ou
 autônomo ou sua última
 atividade exercida
-quando a mãe do recém </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">nascido for
+quando a mãe do recém nascido for
 desempregada. O ramo
 de atividade econômica
 do paciente refere-se as
@@ -132,7 +115,6 @@
 extrativismo); secundário
 (indústria) ou terciário
 (serviços e comércio).</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">ID_OCUPA_N</t>
@@ -451,6 +433,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">(Antecedentes vacinais
 contra tétano) </t>
@@ -461,6 +444,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">=1 e se
 campo Data da 3ª dose
@@ -525,15 +509,7 @@
     <t xml:space="preserve">varchar2(2)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">0-Analfabeto
+    <t xml:space="preserve">0-Analfabeto
 1- 1º a 4º série
 incompleta do
 EF(antigo
@@ -550,16 +526,7 @@
 grau)
 4- Ensino
 fundamental
-Completo </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">(antigo ginásio
+Completo (antigo ginásio
 ou 1º grau)
 5- Ensino médio
 incompleto
@@ -578,7 +545,6 @@
 9- Ignorado
 10 – Não se
 Aplica</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Anos de estudo
@@ -693,26 +659,9 @@
     <t xml:space="preserve">tp_parto_atendido</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1. médico
+    <t xml:space="preserve">1. médico
 2. enfermeiro
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">3. auxiliar de
+3. auxiliar de
 enfermagem
 4. parteira
 treinada
@@ -720,7 +669,6 @@
 treinada
 6. outros
 9. ignorado</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">quem realizou o parto</t>
@@ -744,6 +692,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Se campo diferente de 6
 pular para campo 44
@@ -892,27 +841,9 @@
     <t xml:space="preserve">st_sinais_abdominal</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Se o recém-nascido
+    <t xml:space="preserve">Se o recém-nascido
 apresentou
-endurecimento da </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">musculatura da barriga</t>
-    </r>
+endurecimento da musculatura da barriga</t>
   </si>
   <si>
     <t xml:space="preserve">CS_ABDOMEN</t>
@@ -1052,16 +983,7 @@
 campo 45 (Sinais e
 sintomas – Trismo) for
 igual a 1.
-Campo habilitado se </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">campo 45 (Sinais e
+Campo habilitado se campo 45 (Sinais e
 sintomas – Trismo) for
 igual a 1.
 Deve ser maior do que a
@@ -1199,71 +1121,12 @@
     <t xml:space="preserve">50. Medidas adotadas (Divulgação do problema para autoridades e profissionais de Saúde)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">st_medida_divulgaca</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">o</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1- sim
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">2- não
-9- ignorado</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Se foi realizada a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">divulgação do caso para
+    <t xml:space="preserve">st_medida_divulgacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se foi realizada a divulgação do caso para
 autoridades e
 profissionais de saúde</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">CS_DIVULGA</t>
@@ -1557,16 +1420,7 @@
 provável da fonte de
 infecção) com os valores
 registrados nos campos
-da notificação e habilita </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">para o usuário preencher
+da notificação e habilita para o usuário preencher
 os campos distrito e
 bairro (se país de
 residência não for Brasil,
@@ -1601,6 +1455,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -1611,6 +1466,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -1624,76 +1480,20 @@
     <t xml:space="preserve">TPAUTOCTO</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">54. UF (provável da </t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">fonte de infecção)</t>
-    </r>
+    <t xml:space="preserve">54. UF (provável da fonte de infecção)</t>
   </si>
   <si>
     <t xml:space="preserve">co_uf_infeccao</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tabela com </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">siglas e código
+    <t xml:space="preserve">Tabela com siglas e código
 padronizados
 pelo IBGE</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Sigla da unidade </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">federada onde o paciente
+  </si>
+  <si>
+    <t xml:space="preserve">Sigla da unidade federada onde o paciente
 foi provavelmente
 Infectado.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1715,16 +1515,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">se </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">país de infecção= Brasil e
+      <t xml:space="preserve">se país de infecção= Brasil e
 se campo classificação
 final=1(confirmado)
 Se o campo (O caso é
@@ -1746,6 +1537,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -1756,6 +1548,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -1817,16 +1610,7 @@
 automaticamente com o
 País de residência do
 caso.
-Campo habilitado se </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">classificação final=1 ou
+Campo habilitado se classificação final=1 ou
 </t>
     </r>
     <r>
@@ -1836,6 +1620,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -1846,6 +1631,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -1956,28 +1742,10 @@
     <t xml:space="preserve">varchar(7)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Unidade de Saúde onde
-provalvel mente ocorreu a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">infecção,recém nato
+    <t xml:space="preserve">Unidade de Saúde onde
+provalvel mente ocorreu a infecção,recém nato
 esteve em hospital ou
 casa de parto</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2000,16 +1768,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">se
-campo 52 (Local provável </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">da fonte de infecção) for
+campo 52 (Local provável da fonte de infecção) for
 = 1 ou 3.
 Campo habilitado se
 classificação final=1 ou
@@ -2022,6 +1781,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -2032,6 +1792,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -2148,34 +1909,16 @@
 vachar2(60)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tabela Códigos
+    <t xml:space="preserve">Tabela Códigos
 e nomes
 padronizados
 segundo Tabela
 disponibilizada
-pelo sistema </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">para
+pelo sistema para
 cadastramento
 pelo Gestor
 municipal do
 Sinan</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Código do bairro provável
@@ -2208,16 +1951,7 @@
 = Brasil e o município de
 infecção for subdividido
 em bairro e se campo
-classificação final for </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">igual a 1(confirmado)
+classificação final for igual a 1(confirmado)
 Se o bairro não estiver na
 tabela de distrito
 provável de infecção do
@@ -2237,6 +1971,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">null.
 </t>
@@ -2247,6 +1982,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Quando a classificação
 final for preenchida com
@@ -2364,16 +2100,7 @@
 Evolução do caso=2(óbito
 por TNN) ou 3(obito por
 outras causas). 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Campo habilitado se
+Campo habilitado se
 campo 60. Evolução do
 caso =2 (bito por TNN) ou
 3(óbito por outras
@@ -2454,7 +2181,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2492,32 +2219,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
       <i val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2695,7 +2402,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="35.19140625" defaultRowHeight="49.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3546,25 +3253,25 @@
         <v>20</v>
       </c>
       <c r="D37" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E37" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="E37" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>23</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>137</v>
@@ -3573,22 +3280,22 @@
         <v>176</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>20</v>
@@ -3597,22 +3304,22 @@
         <v>176</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>20</v>
@@ -3621,44 +3328,44 @@
         <v>176</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="C41" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>23</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>75</v>
@@ -3666,334 +3373,334 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="G42" s="9" t="s">
         <v>202</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>203</v>
       </c>
       <c r="H42" s="10"/>
     </row>
     <row r="43" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>204</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>205</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>137</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E43" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="F43" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="G43" s="14" t="s">
         <v>208</v>
-      </c>
-      <c r="G43" s="14" t="s">
-        <v>209</v>
       </c>
       <c r="H43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D44" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="E44" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="E44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="G44" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="C45" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>220</v>
       </c>
       <c r="H45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>221</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>222</v>
       </c>
       <c r="C46" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="F46" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="F46" s="11" t="s">
+      <c r="G46" s="14" t="s">
         <v>225</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>226</v>
       </c>
       <c r="H46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>227</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D47" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="E47" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="E47" s="12" t="s">
+      <c r="F47" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="11" t="s">
+      <c r="G47" s="14" t="s">
         <v>231</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>232</v>
       </c>
       <c r="H47" s="10"/>
     </row>
     <row r="48" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="D48" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="E48" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="F48" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="F48" s="11" t="s">
+      <c r="G48" s="14" t="s">
         <v>238</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>239</v>
       </c>
       <c r="H48" s="10"/>
     </row>
     <row r="49" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="E49" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="E49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="G49" s="9" t="s">
         <v>244</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>245</v>
       </c>
       <c r="H49" s="10"/>
     </row>
     <row r="50" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="C50" s="12" t="s">
         <v>247</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>248</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="F50" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="F50" s="11" t="s">
+      <c r="G50" s="14" t="s">
         <v>250</v>
-      </c>
-      <c r="G50" s="14" t="s">
-        <v>251</v>
       </c>
       <c r="H50" s="10"/>
     </row>
     <row r="51" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B51" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="E51" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="E51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="G51" s="9" t="s">
         <v>257</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>258</v>
       </c>
       <c r="H51" s="10"/>
     </row>
     <row r="52" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="C52" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="D52" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="E52" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="F52" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="G52" s="14" t="s">
         <v>264</v>
-      </c>
-      <c r="G52" s="14" t="s">
-        <v>265</v>
       </c>
       <c r="H52" s="10"/>
     </row>
     <row r="53" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B53" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D53" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="E53" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="G53" s="9" t="s">
         <v>270</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>271</v>
       </c>
       <c r="H53" s="10"/>
     </row>
     <row r="54" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>272</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>273</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="G54" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="G54" s="14" t="s">
-        <v>276</v>
       </c>
       <c r="H54" s="10"/>
     </row>
     <row r="55" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F55" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="G55" s="9" t="s">
         <v>280</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>281</v>
       </c>
       <c r="H55" s="10"/>
     </row>
     <row r="56" customFormat="false" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="C56" s="12" t="s">
         <v>283</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>284</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F56" s="13"/>
       <c r="G56" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H56" s="10"/>
     </row>
